--- a/src/main/resources/testdata/logindata.xlsx
+++ b/src/main/resources/testdata/logindata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REST\Hrm-project\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B335F6A-A47C-4F5A-8089-2478A807BBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1DACB-65E9-415D-A33A-10B283DF115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t> employee01</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>abcdef</t>
+  </si>
+  <si>
+    <t>employee01</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,15 +383,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>123456</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>123456</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>123456</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>123456</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
